--- a/public/dataImport/Excel-usersImport-CE.xlsx
+++ b/public/dataImport/Excel-usersImport-CE.xlsx
@@ -2,18 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -182,13 +182,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -204,6 +202,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -248,8 +253,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -270,520 +279,449 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="7" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>4316052</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>4671951</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>6895530</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="D4" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>5209040</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="D5" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>5727963</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="D6" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>8253155</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="D7" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>4378410</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="D8" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>6656012</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="D9" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5671668</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="D10" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>8213789</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="D11" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>7020000</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="D12" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>7661089</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="D13" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>6540052</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="D14" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>4285793</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="D15" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>5341032</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="D16" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>4806198</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>3461352</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>4376320</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>8163947</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>4178979</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>